--- a/Data/TreasureDefine.xlsx
+++ b/Data/TreasureDefine.xlsx
@@ -27,84 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>level</t>
+    <t>title</t>
   </si>
   <si>
     <t>invokeType</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>iconResource</t>
-  </si>
-  <si>
     <t>methodName</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>ExtraEntry1</t>
-  </si>
-  <si>
-    <t>ExtraEntry2</t>
-  </si>
-  <si>
-    <t>ExtraEntry3</t>
   </si>
   <si>
     <t>king_arrow</t>
   </si>
   <si>
-    <t>king_arrow_icon</t>
-  </si>
-  <si>
     <t>KingArrow</t>
-  </si>
-  <si>
-    <t>在王的指挥下，箭矢们的准确度大大提升了</t>
   </si>
   <si>
     <t>treasure_bowl</t>
   </si>
   <si>
-    <t>treasure_bowl_icon</t>
-  </si>
-  <si>
     <t>TreasureBowl</t>
-  </si>
-  <si>
-    <t>每次点击投入100羽毛，每次有5%的几率被破坏，破坏时使存储的羽毛增值为2倍</t>
   </si>
   <si>
     <t>shield_token</t>
   </si>
   <si>
-    <t>shield_token_icon</t>
-  </si>
-  <si>
     <t>ShieldToken</t>
-  </si>
-  <si>
-    <t>角色每回合开始时获得10护甲</t>
   </si>
   <si>
     <t>sword_stone</t>
   </si>
   <si>
-    <t>sword_stone_icon</t>
-  </si>
-  <si>
     <t>SwordStone</t>
-  </si>
-  <si>
-    <t>观摩剑意石心有所感，使用剑系武器的暴击率提升了</t>
   </si>
 </sst>
 </file>
@@ -1255,27 +1213,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
-    <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
+    <col min="2" max="2" width="13.0576923076923" customWidth="1"/>
     <col min="3" max="3" width="10.5865384615385" customWidth="1"/>
-    <col min="4" max="4" width="14.6730769230769" customWidth="1"/>
-    <col min="5" max="5" width="19.5961538461538" customWidth="1"/>
-    <col min="6" max="6" width="15.8942307692308" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.1153846153846" customWidth="1"/>
-    <col min="8" max="8" width="12.0769230769231" customWidth="1"/>
-    <col min="9" max="9" width="12.5673076923077" customWidth="1"/>
-    <col min="10" max="10" width="12.3173076923077" customWidth="1"/>
+    <col min="4" max="4" width="15.8942307692308" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1285,154 +1237,64 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TreasureDefine.xlsx
+++ b/Data/TreasureDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -35,10 +35,16 @@
     <t>title</t>
   </si>
   <si>
+    <t>allowMulti</t>
+  </si>
+  <si>
     <t>invokeType</t>
   </si>
   <si>
     <t>methodName</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>king_arrow</t>
@@ -1213,21 +1219,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
     <col min="2" max="2" width="13.0576923076923" customWidth="1"/>
-    <col min="3" max="3" width="10.5865384615385" customWidth="1"/>
-    <col min="4" max="4" width="15.8942307692308" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5865384615385" customWidth="1"/>
+    <col min="5" max="5" width="15.8942307692308" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,64 +1243,94 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TreasureDefine.xlsx
+++ b/Data/TreasureDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
